--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tipo</t>
+          <t>Endereço</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Endereço</t>
+          <t>Preço</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Preço</t>
+          <t>Área</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Área</t>
+          <t>Quartos</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Quartos</t>
+          <t>Banheiros</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Banheiros</t>
+          <t>Vagas</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Vagas</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>M2</t>
         </is>

--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,2856 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Casa com 2 Quartos à Venda, 100m²</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rua Ângelo de Lúcia, 201 - Vila Almeida, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 148m²</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rua Ariabu - Cidade Dutra, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>148</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3040.54054054054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 175m²</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rua Professor João Machado, 1 - Nossa Senhora do Ö, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>370000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>175</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2114.285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 151m²</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rua Antônio Fonseca - Vila Maria, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>380000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>151</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2516.556291390728</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 188m²</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Avenida Comendador Sant'Anna, 12547 - Capão Redondo, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>188</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>425.531914893617</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 150m²</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rua Manuel de Almeida - Vila Guilherme, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 205m²</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rua Jarauara, 1 - Vila Ré, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>360000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>205</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1756.09756097561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 203m²</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rua Júlio Colaço, 1 - Chácara Califórnia, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>405000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>203</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1995.073891625616</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 180m²</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Artur Alvim, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2222.222222222222</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 198m²</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rua Jarauara, 2 - Vila Ré, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>295000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>198</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1489.89898989899</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 150m²</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rua Copacabana, 4321 - Santa Teresinha, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>150</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2666.666666666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 230m²</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rua Lido, 1 - Veleiros, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>320000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>230</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1391.304347826087</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 185m²</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Praça Adão Helfenstein, 142 - Santo Amaro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2432.432432432433</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pivô Match Jardins - 26m²</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rua Cravinhos, 44 - Jardim Paulista, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>739860</v>
+      </c>
+      <c r="D15" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>28456.15384615385</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 196m²</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rua Marselha, 1 - Jaguaré, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>325000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>196</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1658.163265306122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Avenida Bosque da Saúde, 610 - Saúde, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>56</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5357.142857142857</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 110m²</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rua Municipal, 10000 - Vila Ré, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>310000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>110</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2818.181818181818</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 153m²</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Avenida Mofarrej, 706 - Vila Leopoldina, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>153</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19934.64052287582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sala/Conjunto à Venda, 32m²</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rua Clélia, 2145 - Água Branca, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>215000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6718.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 142m²</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rua Catarino Andreatta, 1 - Interlagos, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>360000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>142</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2535.211267605634</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OCA MARACATINS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alameda dos Maracatins, 305 - Moema, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>84</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>22619.04761904762</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 76m²</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Avenida Doutor Cardoso de Melo, 71 - Vila Olímpia, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>459000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>76</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6039.473684210527</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 120m²</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rua Clarence - Vila Cruzeiro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>349000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>120</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2908.333333333333</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 190m²</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rua Dona Adelina Ashcar - Jardim Leonor, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>190</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2368.421052631579</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 43m²</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rua Theófilo Azambuja, 145 - Jardim Pirituba, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>43</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5813.953488372093</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 125m²</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rua Manoel Petisco, 255 - Jardim Ester Yolanda, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>470000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 71m²</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rua Dias de Toledo, 288 - Saúde, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>364000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>71</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5126.760563380281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ROYA PERDIZES</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rua Doutor Homem de Melo, 436 - Perdizes, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3881739</v>
+      </c>
+      <c r="D29" t="n">
+        <v>223</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17406.90134529148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rua Ivaí, 277 - Tatuapé, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>380000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>56</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6785.714285714285</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 150m²</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rua Capitania de Itamaracá - Vila Carmosina, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>350000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>150</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2333.333333333333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 205m²</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rua Coronel Luís Schimidt, 1 - Vila das Belezas, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>388000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>205</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1892.682926829268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Casa com 4 Quartos à Venda, 195m²</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rua Andrade Figueira, 1 - Santana, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>410000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>195</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2102.564102564103</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 52m²</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rua Francisco Luiz de Souza Júnior, 416 - Água Branca, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>285000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>52</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5480.76923076923</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 112m²</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Rua José Alberto Senator, 10000 - Água Branca, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>275000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>112</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2455.357142857143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 65m²</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Avenida Lino de Almeida Pires, 282 - Vila Guarani (Z Sul), São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>65</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7692.307692307692</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 174m²</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rua Domingos de Santa Maria, 304 - Vila Guarani (Z Sul), São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>935000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>174</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5373.563218390805</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 77m²</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Rodovia Raposo Tavares, 15713 - Butantã, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>580000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>77</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7532.467532467533</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 48m²</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Avenida Inajar de Souza, 3900 - Vila Nv Cachoeirinha, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>344000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>48</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7166.666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>591600</v>
+      </c>
+      <c r="D40" t="n">
+        <v>63</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9390.476190476191</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 49m²</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rua Arnaldo Cintra, 454 - Tatuapé, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>318000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>49</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6489.795918367347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 70m²</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Rua José Carlos de Toledo Piza, 149 - Jardim Parque Morumbi, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>319000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>70</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4557.142857142857</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>VILLA VERSACE</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Avenida Agami, 364 - Moema, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5241487</v>
+      </c>
+      <c r="D43" t="n">
+        <v>220</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>34</v>
+      </c>
+      <c r="H43" t="n">
+        <v>23824.94090909091</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 89m²</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rua Francisco Valente, 131 - Jardim Ester Yolanda, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>750000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>89</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8426.966292134832</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 60m²</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Avenida Joaquina Ramalho, 428 - Vila Guilherme, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>480000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>60</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 62m²</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rua Atucuri, 214 - Chácara Santo Antônio Zona Leste, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>519232</v>
+      </c>
+      <c r="D46" t="n">
+        <v>62</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8374.709677419354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 77m²</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rodovia Raposo Tavares, 15713 - Butantã, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>575000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>77</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7467.532467532467</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 55m²</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rua Adolfo Reile, 1 - Jardim Celeste, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>340000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>55</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6181.818181818182</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 90m²</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rua Adalberto Kemeny, 119 - Barra Funda, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>983064</v>
+      </c>
+      <c r="D49" t="n">
+        <v>90</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10922.93333333333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Caminhos da Lapa – Reserva 127 metros</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Rua Fortunato Ferraz, 625 - Lapa, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1345000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>127</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10590.55118110236</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 150m²</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Rua Melo Viana - Vila Maria, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>550000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>150</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3666.666666666667</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 159m²</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Vila Nova Alba, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>430000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>159</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2704.40251572327</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 133m²</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rua Maria Curupaiti, 955 - Vila Ester Zona Norte, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>133</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13120.3007518797</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 57m²</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Rua da Chibata, 61 - Vila Andrade, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>410000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>57</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7192.982456140351</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 51m²</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rua Atucuri, 214 - Tatuapé, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>425112</v>
+      </c>
+      <c r="D55" t="n">
+        <v>51</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8335.529411764706</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 64m²</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rua Bertioga, 291 - Chácara Inglesa, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>837000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>64</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13078.125</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Seletto Campo Belo - 186 m²</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rua Gil Eanes, 635 - Campo Belo, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>186</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16666.66666666667</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Rua Capitão Luís Ramos, 12 - Vila Guilherme, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>410000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>63</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6507.936507936508</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>599999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>63</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9523.79365079365</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 150m²</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Rua Mateus Garcia, 900 - Horto Florestal, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="D60" t="n">
+        <v>150</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10533.33333333333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>598200</v>
+      </c>
+      <c r="D61" t="n">
+        <v>63</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9495.238095238095</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 65m²</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Avenida Clavásio Alves da Silva, 227 - Vila Siqueira (Zona Norte), São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>65</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6923.076923076923</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 34m²</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Avenida Cupecê, 1877 - Cidade Ademar, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>260000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>34</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7647.058823529412</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tons Klabin - 137 m²</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rua Major Newton de Feliciano, 105 - Jardim Aurelia, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1579292</v>
+      </c>
+      <c r="D64" t="n">
+        <v>137</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>11527.67883211679</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 55m²</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rua Ester Samara, 111 - Butantã, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>265000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>55</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4818.181818181818</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Apartamento com Quarto à Venda, 61m²</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Avenida Nove de Julho, 1090 - Bela Vista, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>319900</v>
+      </c>
+      <c r="D66" t="n">
+        <v>61</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5244.262295081967</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 51m²</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rua Atucuri, 214 - Vila Carrão, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>425000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>51</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8333.333333333334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 38m²</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rua Herval, 869 - Belenzinho, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>280000</v>
+      </c>
+      <c r="D68" t="n">
+        <v>38</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7368.421052631579</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sala/Conjunto à Venda, 32m²</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rua Turiassu, 446 - Perdizes, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>299000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>32</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9343.75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 38m²</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Rua Coronel Albino Bairão, 425 - Bresser, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>267000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>38</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7026.315789473684</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Casa com 2 Quartos à Venda, 140m²</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rua Alexandre Rider, 106 - Raposo Tavares, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>360000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>140</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2571.428571428572</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Mac Pinheiros - 93 m²</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Avenida Rebouças, 89 - Cerqueira César, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2158461</v>
+      </c>
+      <c r="D72" t="n">
+        <v>93</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>23209.25806451613</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 68m²</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rua do Canal, 215 - Vila Guilherme, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>469500</v>
+      </c>
+      <c r="D73" t="n">
+        <v>68</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6904.411764705882</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 75m²</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Rua Emílio de Sousa Docca, 520 - Vila Santa Catarina, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>450000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>75</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 65m²</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Vila das Mercês, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>65</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4615.384615384615</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 162m²</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Avenida Antônio Diogo, 571 - Vila Ré, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>550000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>162</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3395.061728395062</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Rua Cabo Estácio da Conceição, 549 - Parque Maria Helena, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>54</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6111.111111111111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Casa com 2 Quartos à Venda, 100m²</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Travessa Julho de 1982, 70 - Parque Fernanda, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>270000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 44m²</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rua Francisco Luiz de Souza Júnior, 328 - Água Branca, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>335000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>44</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7613.636363636364</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 44m²</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Rua Cândido Fontoura, 1000 - Jardim Boa Vista Zona Oeste, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>285000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>44</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6477.272727272727</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Rua Doutor Sérgio Meira, 230 - Barra Funda, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>480000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>63</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>7619.047619047619</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Casa com 3 Quartos à Venda, 115m²</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Rua Engenheiro Antônio Alves Braga, 397 - Riviera Paulista, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>115</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4347.826086956522</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rua Francisco Barsanti, 295 - City Jaragua, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>145000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>54</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2685.185185185185</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>592699</v>
+      </c>
+      <c r="D84" t="n">
+        <v>63</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9407.920634920634</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 61m²</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rua Diogo Pereira, 297 - Super Quadra, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>392000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>61</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>6426.229508196721</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Avenida Melchert - Vila Matilde, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>480000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>56</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>8571.428571428571</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 58m²</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rua Doutor João Vieira Neves - Jardim Esmeralda Zona Oeste, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>300000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>58</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5172.413793103448</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 40m²</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Avenida Guarapiranga, 1 - Socorro, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>314000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>40</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 117m²</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Rua João Moura, 636 - Pinheiros, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>117</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>18803.4188034188</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 52m²</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Rua Antero de Quental, 1 - Vila Santa Clara, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>380000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>52</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7307.692307692308</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ROYA PERDIZES</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rua Doutor Homem de Melo, 436 - Perdizes, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3881739</v>
+      </c>
+      <c r="D91" t="n">
+        <v>223</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>17406.90134529148</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Casa com 2 Quartos à Venda, 90m²</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Rua Érico Veríssimo, 674 - Butantã, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>350000</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3888.888888888889</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Apartamento com 3 Quartos à Venda, 60m²</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Rua Costa Barros, 2363 - Sítio Pinheirinho, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>367500</v>
+      </c>
+      <c r="D93" t="n">
+        <v>60</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 72m²</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Rua Antônio Domingues Freitas, 115 - Mandaqui, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>400000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>72</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5555.555555555556</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 50m²</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Rua Manguari - Jardim Andaraí, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>50</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Apartamento com 2 Quartos à Venda, 43m²</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Estrada Itaquera-Guaianases, 2001 - Itaquera, São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>250000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>43</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5813.953488372093</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Casa com 2 Quartos à Venda, 100m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 70m²</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rua Ângelo de Lúcia, 201 - Vila Almeida, São Paulo - SP</t>
+          <t>Rua Martiniano de Carvalho, 1 - Bela Vista, São Paulo - SP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -502,115 +502,115 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2500</v>
+        <v>4285.714285714285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 148m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 42m²</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rua Ariabu - Cidade Dutra, São Paulo - SP</t>
+          <t>Avenida Brigadeiro Luís Antônio, 339 - Bela Vista, São Paulo - SP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450000</v>
+        <v>190000</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3040.54054054054</v>
+        <v>4523.809523809524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 175m²</t>
+          <t>Apartamento com Quarto à Venda, 30m²</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rua Professor João Machado, 1 - Nossa Senhora do Ö, São Paulo - SP</t>
+          <t>Alameda Barros, 380 - Higienópolis, São Paulo - SP</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="D4" t="n">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2114.285714285714</v>
+        <v>10666.66666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 151m²</t>
+          <t>Sala/Conjunto à Venda, 31m²</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rua Antônio Fonseca - Vila Maria, São Paulo - SP</t>
+          <t>Rua Bom Pastor, 2100 - Ipiranga, São Paulo - SP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>380000</v>
+        <v>270000</v>
       </c>
       <c r="D5" t="n">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2516.556291390728</v>
+        <v>8709.677419354839</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 188m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 70m²</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avenida Comendador Sant'Anna, 12547 - Capão Redondo, São Paulo - SP</t>
+          <t>Avenida Cupecê, 1784 - Jardim Prudência, São Paulo - SP</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>80000</v>
+        <v>585000</v>
       </c>
       <c r="D6" t="n">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -619,31 +619,31 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>425.531914893617</v>
+        <v>8357.142857142857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 150m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 65m²</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rua Manuel de Almeida - Vila Guilherme, São Paulo - SP</t>
+          <t>Rua Doutor Vicente Giacaglini - Vila Bela, São Paulo - SP</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D7" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -652,148 +652,148 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2000</v>
+        <v>6153.846153846154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 205m²</t>
+          <t>Casa com 3 Quartos à Venda, 125m²</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rua Jarauara, 1 - Vila Ré, São Paulo - SP</t>
+          <t>Vila Santa Catarina, São Paulo - SP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>360000</v>
+        <v>795000</v>
       </c>
       <c r="D8" t="n">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>1756.09756097561</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 203m²</t>
+          <t>BEM MOEMA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rua Júlio Colaço, 1 - Chácara Califórnia, São Paulo - SP</t>
+          <t>Avenida Bem-te-vi, 221 - Moema, São Paulo - SP</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>405000</v>
+        <v>1684632</v>
       </c>
       <c r="D9" t="n">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1995.073891625616</v>
+        <v>21057.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 180m²</t>
+          <t>Apartamento com Quarto à Venda, 37m²</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Artur Alvim, São Paulo - SP</t>
+          <t>Rua Caramuru - Saúde, São Paulo - SP</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>400000</v>
+        <v>399000</v>
       </c>
       <c r="D10" t="n">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2222.222222222222</v>
+        <v>10783.78378378378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 198m²</t>
+          <t>Casa com 2 Quartos à Venda, 84m²</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rua Jarauara, 2 - Vila Ré, São Paulo - SP</t>
+          <t>Rua Júlio Parigot - Vila Antonieta, São Paulo - SP</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>295000</v>
+        <v>415000</v>
       </c>
       <c r="D11" t="n">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1489.89898989899</v>
+        <v>4940.476190476191</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 150m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 60m²</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rua Copacabana, 4321 - Santa Teresinha, São Paulo - SP</t>
+          <t>Morumbi, São Paulo - SP</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>400000</v>
+        <v>375000</v>
       </c>
       <c r="D12" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -802,148 +802,148 @@
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2666.666666666667</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 230m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 58m²</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rua Lido, 1 - Veleiros, São Paulo - SP</t>
+          <t>Lauzane Paulista, São Paulo - SP</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>320000</v>
+        <v>347000</v>
       </c>
       <c r="D13" t="n">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1391.304347826087</v>
+        <v>5982.758620689655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 185m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 42m²</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Praça Adão Helfenstein, 142 - Santo Amaro, São Paulo - SP</t>
+          <t>Rua Paratiba - Jardim Nordeste, São Paulo - SP</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450000</v>
+        <v>238000</v>
       </c>
       <c r="D14" t="n">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2432.432432432433</v>
+        <v>5666.666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pivô Match Jardins - 26m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 52m²</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rua Cravinhos, 44 - Jardim Paulista, São Paulo - SP</t>
+          <t>Vila Ré, São Paulo - SP</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>739860</v>
+        <v>265000</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>28456.15384615385</v>
+        <v>5096.153846153846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 196m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 46m²</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rua Marselha, 1 - Jaguaré, São Paulo - SP</t>
+          <t>Parque São Lourenço, São Paulo - SP</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>325000</v>
+        <v>210000</v>
       </c>
       <c r="D16" t="n">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1658.163265306122</v>
+        <v>4565.217391304348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 69m²</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Avenida Bosque da Saúde, 610 - Saúde, São Paulo - SP</t>
+          <t>Vila Bela Vista Zona Norte, São Paulo - SP</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>300000</v>
+        <v>349000</v>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -952,325 +952,325 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>5357.142857142857</v>
+        <v>5057.971014492754</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 110m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 50m²</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rua Municipal, 10000 - Vila Ré, São Paulo - SP</t>
+          <t>Parque Peruche, São Paulo - SP</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>310000</v>
+        <v>243000</v>
       </c>
       <c r="D18" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2818.181818181818</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 153m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Avenida Mofarrej, 706 - Vila Leopoldina, São Paulo - SP</t>
+          <t>Rua Francisco Rodrigues Seckler - Vila Taquari, São Paulo - SP</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3050000</v>
+        <v>265000</v>
       </c>
       <c r="D19" t="n">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>19934.64052287582</v>
+        <v>4907.407407407408</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sala/Conjunto à Venda, 32m²</t>
+          <t>Casa com 3 Quartos à Venda, 150m²</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rua Clélia, 2145 - Água Branca, São Paulo - SP</t>
+          <t>Rua José David Filho, 50 - Jardim Alvorada Zona Oeste, São Paulo - SP</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>215000</v>
+        <v>499900</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>6718.75</v>
+        <v>3332.666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 142m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 64m²</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rua Catarino Andreatta, 1 - Interlagos, São Paulo - SP</t>
+          <t>Vila Ema, São Paulo - SP</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>360000</v>
+        <v>380000</v>
       </c>
       <c r="D21" t="n">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2535.211267605634</v>
+        <v>5937.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OCA MARACATINS</t>
+          <t>Altos de Patriarca - pronto para morar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alameda dos Maracatins, 305 - Moema, São Paulo - SP</t>
+          <t>Rua Catrimani, 290 - Cidade Patriarca, São Paulo - SP</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1900000</v>
+        <v>281184</v>
       </c>
       <c r="D22" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>22619.04761904762</v>
+        <v>8270.117647058823</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 76m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 68m²</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avenida Doutor Cardoso de Melo, 71 - Vila Olímpia, São Paulo - SP</t>
+          <t>Rua Deputado Laércio Corte - Paraíso do Morumbi, São Paulo - SP</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>459000</v>
+        <v>385000</v>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>6039.473684210527</v>
+        <v>5661.764705882353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 120m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 40m²</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rua Clarence - Vila Cruzeiro, São Paulo - SP</t>
+          <t>Rua Rodrigues Velho, 114 - Vila Carrão, São Paulo - SP</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>349000</v>
+        <v>244681</v>
       </c>
       <c r="D24" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>2908.333333333333</v>
+        <v>6117.025</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 190m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rua Dona Adelina Ashcar - Jardim Leonor, São Paulo - SP</t>
+          <t>Avenida Doutor Assis Ribeiro - Engenheiro Goulart, São Paulo - SP</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450000</v>
+        <v>260000</v>
       </c>
       <c r="D25" t="n">
-        <v>190</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>2368.421052631579</v>
+        <v>4814.814814814815</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 43m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 41m²</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rua Theófilo Azambuja, 145 - Jardim Pirituba, São Paulo - SP</t>
+          <t>Rua Santo Alexandre, 20 - Vila Guilhermina, São Paulo - SP</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>250000</v>
+        <v>339570</v>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>5813.953488372093</v>
+        <v>8282.195121951219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 125m²</t>
+          <t>Flat com Quarto à Venda, 30m²</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rua Manoel Petisco, 255 - Jardim Ester Yolanda, São Paulo - SP</t>
+          <t>Rua Margarida, 166 - Barra Funda, São Paulo - SP</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>470000</v>
+        <v>270000</v>
       </c>
       <c r="D27" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>3760</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 71m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Rua Dias de Toledo, 288 - Saúde, São Paulo - SP</t>
+          <t>Rua Santa Áurea - Ipiranga, São Paulo - SP</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>364000</v>
+        <v>599000</v>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -1282,85 +1282,85 @@
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>5126.760563380281</v>
+        <v>11092.59259259259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ROYA PERDIZES</t>
+          <t>Grand Living Nova Klabin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rua Doutor Homem de Melo, 436 - Perdizes, São Paulo - SP</t>
+          <t>Rua Caçador de Esmeraldas, 219 - Vila Sao Jose Ipiranga, São Paulo - SP</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3881739</v>
+        <v>1522000</v>
       </c>
       <c r="D29" t="n">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>17406.90134529148</v>
+        <v>12578.51239669422</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 75m²</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rua Ivaí, 277 - Tatuapé, São Paulo - SP</t>
+          <t>Avenida Padre Arlindo Vieira, 490 - Vila Vermelha, São Paulo - SP</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>380000</v>
+        <v>538900</v>
       </c>
       <c r="D30" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>6785.714285714285</v>
+        <v>7185.333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 150m²</t>
+          <t>Casa com 3 Quartos à Venda, 126m²</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rua Capitania de Itamaracá - Vila Carmosina, São Paulo - SP</t>
+          <t>Jardim Dom Bosco, São Paulo - SP</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>350000</v>
+        <v>870000</v>
       </c>
       <c r="D31" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -1369,91 +1369,91 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>2333.333333333333</v>
+        <v>6904.761904761905</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 205m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 52m²</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rua Coronel Luís Schimidt, 1 - Vila das Belezas, São Paulo - SP</t>
+          <t>Parque Cruzeiro do Sul, São Paulo - SP</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>388000</v>
+        <v>230000</v>
       </c>
       <c r="D32" t="n">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1892.682926829268</v>
+        <v>4423.076923076923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Casa com 4 Quartos à Venda, 195m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 43m²</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rua Andrade Figueira, 1 - Santana, São Paulo - SP</t>
+          <t>Jaragua, São Paulo - SP</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>410000</v>
+        <v>230000</v>
       </c>
       <c r="D33" t="n">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>2102.564102564103</v>
+        <v>5348.837209302325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 52m²</t>
+          <t>Apartamento com Quarto à Venda, 37m²</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rua Francisco Luiz de Souza Júnior, 416 - Água Branca, São Paulo - SP</t>
+          <t>Rua dos Caciques - Saúde, São Paulo - SP</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>285000</v>
+        <v>477000</v>
       </c>
       <c r="D34" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>2</v>
@@ -1462,205 +1462,205 @@
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>5480.76923076923</v>
+        <v>12891.89189189189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 112m²</t>
+          <t>Sala/Conjunto à Venda, 46m²</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rua José Alberto Senator, 10000 - Água Branca, São Paulo - SP</t>
+          <t>Rua Silveira Martins, 53 - Sé, São Paulo - SP</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>275000</v>
+        <v>170000</v>
       </c>
       <c r="D35" t="n">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2455.357142857143</v>
+        <v>3695.652173913043</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 65m²</t>
+          <t>Apartamento com 2 Quartos para Aluguel, 60m²</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avenida Lino de Almeida Pires, 282 - Vila Guarani (Z Sul), São Paulo - SP</t>
+          <t>Diamante (Barreiro), Belo Horizonte - MG</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="D36" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>7692.307692307692</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 174m²</t>
+          <t>Flat com Quarto para Aluguel, 50m²</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rua Domingos de Santa Maria, 304 - Vila Guarani (Z Sul), São Paulo - SP</t>
+          <t>Rua 1, casa 14 - Vila Planalto, Brasília - DF</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>935000</v>
+        <v>3500</v>
       </c>
       <c r="D37" t="n">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>5373.563218390805</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 77m²</t>
+          <t>Casa com 2 Quartos para Aluguel, 132m²</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rodovia Raposo Tavares, 15713 - Butantã, São Paulo - SP</t>
+          <t>Rua Geral da Passagem do Massiambu Mercearia Lamiro - Palhoça - SC</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>580000</v>
+        <v>1500</v>
       </c>
       <c r="D38" t="n">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>7532.467532467533</v>
+        <v>11.36363636363636</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 48m²</t>
+          <t>Casa com 3 Quartos à Venda, 240m²</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avenida Inajar de Souza, 3900 - Vila Nv Cachoeirinha, São Paulo - SP</t>
+          <t>Alameda dos Pescadores, 202 - Praia do Forte, Mata de São João - BA</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>344000</v>
+        <v>2200000</v>
       </c>
       <c r="D39" t="n">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>7166.666666666667</v>
+        <v>9166.666666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 50m²</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+          <t>Rua Antônio Ambuba, 109 - Parque Munhoz, São Paulo - SP</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>591600</v>
+        <v>230000</v>
       </c>
       <c r="D40" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>9390.476190476191</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 49m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 57m²</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rua Arnaldo Cintra, 454 - Tatuapé, São Paulo - SP</t>
+          <t>Rua Oliveira Alves, 495 - Ipiranga, São Paulo - SP</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>318000</v>
+        <v>425000</v>
       </c>
       <c r="D41" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
@@ -1672,265 +1672,265 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>6489.795918367347</v>
+        <v>7456.140350877193</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 70m²</t>
+          <t>Casa com 3 Quartos à Venda, 142m²</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rua José Carlos de Toledo Piza, 149 - Jardim Parque Morumbi, São Paulo - SP</t>
+          <t>Rua Boaventura de Souza - Parque Edu Chaves, São Paulo - SP</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>319000</v>
+        <v>567000</v>
       </c>
       <c r="D42" t="n">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>4557.142857142857</v>
+        <v>3992.957746478873</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>VILLA VERSACE</t>
+          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Avenida Agami, 364 - Moema, São Paulo - SP</t>
+          <t>Avenida Raimundo Pereira de Magalhães, 2820 - Jardim Íris, São Paulo - SP</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5241487</v>
+        <v>373000</v>
       </c>
       <c r="D43" t="n">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>23824.94090909091</v>
+        <v>6660.714285714285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 89m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 42m²</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rua Francisco Valente, 131 - Jardim Ester Yolanda, São Paulo - SP</t>
+          <t>Avenida Brigadeiro Luís Antônio, 339 - Bela Vista, São Paulo - SP</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>750000</v>
+        <v>190000</v>
       </c>
       <c r="D44" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>8426.966292134832</v>
+        <v>4523.809523809524</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 60m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 47m²</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Avenida Joaquina Ramalho, 428 - Vila Guilherme, São Paulo - SP</t>
+          <t>Avenida Alexios Jafet, 595 - Jardim Ipanema (Zona Oeste), São Paulo - SP</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>480000</v>
+        <v>199990</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>8000</v>
+        <v>4255.106382978724</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 62m²</t>
+          <t>Apartamento com Quarto à Venda, 29m²</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Rua Atucuri, 214 - Chácara Santo Antônio Zona Leste, São Paulo - SP</t>
+          <t>Rua Doutor Bento Teobaldo Ferraz, 330 - Barra Funda, São Paulo - SP</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>519232</v>
+        <v>285000</v>
       </c>
       <c r="D46" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8374.709677419354</v>
+        <v>9827.586206896553</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 77m²</t>
+          <t>Caminhos da Lapa – Reserva 157 metros</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Rodovia Raposo Tavares, 15713 - Butantã, São Paulo - SP</t>
+          <t>Rua Fortunato Ferraz, 625 - Lapa, São Paulo - SP</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>575000</v>
+        <v>1900000</v>
       </c>
       <c r="D47" t="n">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>7467.532467532467</v>
+        <v>12101.91082802548</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 55m²</t>
+          <t>Casa com 2 Quartos à Venda, 88m²</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Rua Adolfo Reile, 1 - Jardim Celeste, São Paulo - SP</t>
+          <t>Rua Mangericão, 36 - Jardim Santa Maria, São Paulo - SP</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>340000</v>
+        <v>429900</v>
       </c>
       <c r="D48" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>6181.818181818182</v>
+        <v>4885.227272727273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 90m²</t>
+          <t>Apartamento com Quarto à Venda, 36m²</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rua Adalberto Kemeny, 119 - Barra Funda, São Paulo - SP</t>
+          <t>Rua Visconde de Parnaíba, 1046 - Brás, São Paulo - SP</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>983064</v>
+        <v>360000</v>
       </c>
       <c r="D49" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>10922.93333333333</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Caminhos da Lapa – Reserva 127 metros</t>
+          <t>Apartamento com 3 Quartos à Venda, 133m²</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rua Fortunato Ferraz, 625 - Lapa, São Paulo - SP</t>
+          <t>Rua Maria Curupaiti, 955 - Vila Ester Zona Norte, São Paulo - SP</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1345000</v>
+        <v>1745000</v>
       </c>
       <c r="D50" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E50" t="n">
         <v>3</v>
@@ -1942,145 +1942,145 @@
         <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>10590.55118110236</v>
+        <v>13120.3007518797</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 150m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 49m²</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rua Melo Viana - Vila Maria, São Paulo - SP</t>
+          <t>Rua Canner - Vila Pereira Cerca, São Paulo - SP</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>550000</v>
+        <v>286000</v>
       </c>
       <c r="D51" t="n">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>3666.666666666667</v>
+        <v>5836.734693877551</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 159m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 67m²</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vila Nova Alba, São Paulo - SP</t>
+          <t>Rua Basílio da Cunha, 709 - Aclimação, São Paulo - SP</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>430000</v>
+        <v>460000</v>
       </c>
       <c r="D52" t="n">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>2704.40251572327</v>
+        <v>6865.671641791045</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 133m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 45m²</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rua Maria Curupaiti, 955 - Vila Ester Zona Norte, São Paulo - SP</t>
+          <t>Rua Henrique Casela, 22 - Jardim América da Penha, São Paulo - SP</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1745000</v>
+        <v>130791</v>
       </c>
       <c r="D53" t="n">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>13120.3007518797</v>
+        <v>2906.466666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 57m²</t>
+          <t>Arky Cayowaá</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Rua da Chibata, 61 - Vila Andrade, São Paulo - SP</t>
+          <t>Rua Cayowaá, 152 - Perdizes, São Paulo - SP</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>410000</v>
+        <v>1393165</v>
       </c>
       <c r="D54" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>7192.982456140351</v>
+        <v>17414.5625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 51m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rua Atucuri, 214 - Tatuapé, São Paulo - SP</t>
+          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>425112</v>
+        <v>598200</v>
       </c>
       <c r="D55" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
@@ -2092,235 +2092,235 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>8335.529411764706</v>
+        <v>9495.238095238095</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 64m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 34m²</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rua Bertioga, 291 - Chácara Inglesa, São Paulo - SP</t>
+          <t>Rua Manuel Alves de Siqueira, 51 - Jardim Itacolomi, São Paulo - SP</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>837000</v>
+        <v>234000</v>
       </c>
       <c r="D56" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>13078.125</v>
+        <v>6882.35294117647</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Seletto Campo Belo - 186 m²</t>
+          <t>Ponto comercial/Loja/Box à Venda, 57m²</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rua Gil Eanes, 635 - Campo Belo, São Paulo - SP</t>
+          <t>Rua Coronel Xavier de Toledo, 105 - Centro, São Paulo - SP</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3100000</v>
+        <v>128000</v>
       </c>
       <c r="D57" t="n">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>16666.66666666667</v>
+        <v>2245.614035087719</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+          <t>Apartamento com Quarto à Venda, 24m²</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rua Capitão Luís Ramos, 12 - Vila Guilherme, São Paulo - SP</t>
+          <t>Rua Ibitirama, 389 - Vila Prudente, São Paulo - SP</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>410000</v>
+        <v>270000</v>
       </c>
       <c r="D58" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>6507.936507936508</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+          <t>Sala/Conjunto à Venda, 28m²</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+          <t>Rua Clélia, 2208 - Água Branca, São Paulo - SP</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>599999</v>
+        <v>364000</v>
       </c>
       <c r="D59" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>9523.79365079365</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 150m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 76m²</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rua Mateus Garcia, 900 - Horto Florestal, São Paulo - SP</t>
+          <t>Rua Sousa Breves, 97 - Tatuapé, São Paulo - SP</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1580000</v>
+        <v>703339</v>
       </c>
       <c r="D60" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>10533.33333333333</v>
+        <v>9254.46052631579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
+          <t>Casa com 4 Quartos à Venda, 200m²</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
+          <t>Rua Batista Fergusio, 1 - Vila Cardoso Franco, São Paulo - SP</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>598200</v>
+        <v>400000</v>
       </c>
       <c r="D61" t="n">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>9495.238095238095</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 65m²</t>
+          <t>Casa com 3 Quartos à Venda, 164m²</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Avenida Clavásio Alves da Silva, 227 - Vila Siqueira (Zona Norte), São Paulo - SP</t>
+          <t>Rua Padre Jósimo Morais Tavares, 411 - Jardim Alto Alegre, São Paulo - SP</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450000</v>
+        <v>420000</v>
       </c>
       <c r="D62" t="n">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>6923.076923076923</v>
+        <v>2560.975609756098</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 34m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 52m²</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Avenida Cupecê, 1877 - Cidade Ademar, São Paulo - SP</t>
+          <t>Rua Estevão Jordan, 254 - Jardim Monica, São Paulo - SP</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="D63" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -2329,31 +2329,31 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>7647.058823529412</v>
+        <v>4423.076923076923</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Tons Klabin - 137 m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 55m²</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rua Major Newton de Feliciano, 105 - Jardim Aurelia, São Paulo - SP</t>
+          <t>Rua Soldado Sebastião Garcia, 81 - Parque Novo Mundo, São Paulo - SP</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1579292</v>
+        <v>425000</v>
       </c>
       <c r="D64" t="n">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
@@ -2362,25 +2362,25 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>11527.67883211679</v>
+        <v>7727.272727272727</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 55m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 50m²</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rua Ester Samara, 111 - Butantã, São Paulo - SP</t>
+          <t>Rua Doutor Luiz Migliano, 811 - Morumbi, São Paulo - SP</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>265000</v>
+        <v>239000</v>
       </c>
       <c r="D65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -2392,208 +2392,208 @@
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>4818.181818181818</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Apartamento com Quarto à Venda, 61m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Avenida Nove de Julho, 1090 - Bela Vista, São Paulo - SP</t>
+          <t>Avenida Luiz Gushiken, 1760 - Chácara Santana, São Paulo - SP</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>319900</v>
+        <v>280000</v>
       </c>
       <c r="D66" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>5244.262295081967</v>
+        <v>5185.185185185185</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 51m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 48m²</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rua Atucuri, 214 - Vila Carrão, São Paulo - SP</t>
+          <t>Rua Porto Nacional, 60 - Vila Siqueira (Zona Norte), São Paulo - SP</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>425000</v>
+        <v>250000</v>
       </c>
       <c r="D67" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>8333.333333333334</v>
+        <v>5208.333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 38m²</t>
+          <t>Casa com 3 Quartos à Venda, 200m²</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Rua Herval, 869 - Belenzinho, São Paulo - SP</t>
+          <t>Alameda das Pitangueiras, 137 - Conjunto Residencial Alpes do Jaraguá, São Paulo - SP</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="D68" t="n">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
-        <v>7368.421052631579</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sala/Conjunto à Venda, 32m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 109m²</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rua Turiassu, 446 - Perdizes, São Paulo - SP</t>
+          <t>Rua Sousa Breves, 97 - Tatuapé, São Paulo - SP</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>299000</v>
+        <v>1087299</v>
       </c>
       <c r="D69" t="n">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>9343.75</v>
+        <v>9975.220183486239</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Apartamento com 2 Quartos à Venda, 38m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 77m²</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rua Coronel Albino Bairão, 425 - Bresser, São Paulo - SP</t>
+          <t>Rua Inácio Manuel Álvares, 298 - Butantã, São Paulo - SP</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>267000</v>
+        <v>480000</v>
       </c>
       <c r="D70" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
-        <v>7026.315789473684</v>
+        <v>6233.766233766234</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Casa com 2 Quartos à Venda, 140m²</t>
+          <t>Apartamento com 3 Quartos à Venda, 173m²</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rua Alexandre Rider, 106 - Raposo Tavares, São Paulo - SP</t>
+          <t>Rua Pedro Pomponazzi, 230 - Jardim Vila Mariana, São Paulo - SP</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>360000</v>
+        <v>1600000</v>
       </c>
       <c r="D71" t="n">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
-        <v>2571.428571428572</v>
+        <v>9248.554913294798</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mac Pinheiros - 93 m²</t>
+          <t>Apartamento com 2 Quartos à Venda, 55m²</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Avenida Rebouças, 89 - Cerqueira César, São Paulo - SP</t>
+          <t>Rua Cascado, 38 - Vila Andrade, São Paulo - SP</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2158461</v>
+        <v>285000</v>
       </c>
       <c r="D72" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
         <v>2</v>
@@ -2602,88 +2602,88 @@
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>23209.25806451613</v>
+        <v>5181.818181818182</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 68m²</t>
+          <t>Apartamento com 2 Quartos para Aluguel, 60m²</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rua do Canal, 215 - Vila Guilherme, São Paulo - SP</t>
+          <t>Diamante (Barreiro), Belo Horizonte - MG</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>469500</v>
+        <v>1000</v>
       </c>
       <c r="D73" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>6904.411764705882</v>
+        <v>16.66666666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 75m²</t>
+          <t>Flat com Quarto para Aluguel, 50m²</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Rua Emílio de Sousa Docca, 520 - Vila Santa Catarina, São Paulo - SP</t>
+          <t>Rua 1, casa 14 - Vila Planalto, Brasília - DF</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450000</v>
+        <v>3500</v>
       </c>
       <c r="D74" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>6000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Apartamento com 3 Quartos à Venda, 65m²</t>
+          <t>Casa com 2 Quartos para Aluguel, 132m²</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Vila das Mercês, São Paulo - SP</t>
+          <t>Rua Geral da Passagem do Massiambu Mercearia Lamiro - Palhoça - SC</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>300000</v>
+        <v>1500</v>
       </c>
       <c r="D75" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -2692,637 +2692,37 @@
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>4615.384615384615</v>
+        <v>11.36363636363636</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Casa com 3 Quartos à Venda, 162m²</t>
+          <t>Casa com 3 Quartos à Venda, 240m²</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Avenida Antônio Diogo, 571 - Vila Ré, São Paulo - SP</t>
+          <t>Alameda dos Pescadores, 202 - Praia do Forte, Mata de São João - BA</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>550000</v>
+        <v>2200000</v>
       </c>
       <c r="D76" t="n">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
       </c>
       <c r="F76" t="n">
+        <v>5</v>
+      </c>
+      <c r="G76" t="n">
         <v>4</v>
       </c>
-      <c r="G76" t="n">
-        <v>2</v>
-      </c>
       <c r="H76" t="n">
-        <v>3395.061728395062</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Rua Cabo Estácio da Conceição, 549 - Parque Maria Helena, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>330000</v>
-      </c>
-      <c r="D77" t="n">
-        <v>54</v>
-      </c>
-      <c r="E77" t="n">
-        <v>2</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>6111.111111111111</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Casa com 2 Quartos à Venda, 100m²</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Travessa Julho de 1982, 70 - Parque Fernanda, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>270000</v>
-      </c>
-      <c r="D78" t="n">
-        <v>100</v>
-      </c>
-      <c r="E78" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2</v>
-      </c>
-      <c r="G78" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 44m²</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Rua Francisco Luiz de Souza Júnior, 328 - Água Branca, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>335000</v>
-      </c>
-      <c r="D79" t="n">
-        <v>44</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>7613.636363636364</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 44m²</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Rua Cândido Fontoura, 1000 - Jardim Boa Vista Zona Oeste, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>285000</v>
-      </c>
-      <c r="D80" t="n">
-        <v>44</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>6477.272727272727</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Rua Doutor Sérgio Meira, 230 - Barra Funda, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>480000</v>
-      </c>
-      <c r="D81" t="n">
-        <v>63</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7619.047619047619</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Casa com 3 Quartos à Venda, 115m²</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Rua Engenheiro Antônio Alves Braga, 397 - Riviera Paulista, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>500000</v>
-      </c>
-      <c r="D82" t="n">
-        <v>115</v>
-      </c>
-      <c r="E82" t="n">
-        <v>3</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>4</v>
-      </c>
-      <c r="H82" t="n">
-        <v>4347.826086956522</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 54m²</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Rua Francisco Barsanti, 295 - City Jaragua, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>145000</v>
-      </c>
-      <c r="D83" t="n">
-        <v>54</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2685.185185185185</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 63m²</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Rua Albino Boldasso Gabril, 119 - Santo Amaro, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>592699</v>
-      </c>
-      <c r="D84" t="n">
-        <v>63</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9407.920634920634</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 61m²</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Rua Diogo Pereira, 297 - Super Quadra, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>392000</v>
-      </c>
-      <c r="D85" t="n">
-        <v>61</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>6426.229508196721</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 56m²</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Avenida Melchert - Vila Matilde, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>480000</v>
-      </c>
-      <c r="D86" t="n">
-        <v>56</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>8571.428571428571</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 58m²</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Rua Doutor João Vieira Neves - Jardim Esmeralda Zona Oeste, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>300000</v>
-      </c>
-      <c r="D87" t="n">
-        <v>58</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>5172.413793103448</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 40m²</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Avenida Guarapiranga, 1 - Socorro, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>314000</v>
-      </c>
-      <c r="D88" t="n">
-        <v>40</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>7850</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Apartamento com 3 Quartos à Venda, 117m²</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Rua João Moura, 636 - Pinheiros, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2200000</v>
-      </c>
-      <c r="D89" t="n">
-        <v>117</v>
-      </c>
-      <c r="E89" t="n">
-        <v>3</v>
-      </c>
-      <c r="F89" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2</v>
-      </c>
-      <c r="H89" t="n">
-        <v>18803.4188034188</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 52m²</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Rua Antero de Quental, 1 - Vila Santa Clara, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>380000</v>
-      </c>
-      <c r="D90" t="n">
-        <v>52</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7307.692307692308</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ROYA PERDIZES</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Rua Doutor Homem de Melo, 436 - Perdizes, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>3881739</v>
-      </c>
-      <c r="D91" t="n">
-        <v>223</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17406.90134529148</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Casa com 2 Quartos à Venda, 90m²</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Rua Érico Veríssimo, 674 - Butantã, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>350000</v>
-      </c>
-      <c r="D92" t="n">
-        <v>90</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3888.888888888889</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Apartamento com 3 Quartos à Venda, 60m²</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Rua Costa Barros, 2363 - Sítio Pinheirinho, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>367500</v>
-      </c>
-      <c r="D93" t="n">
-        <v>60</v>
-      </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>6125</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 72m²</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Rua Antônio Domingues Freitas, 115 - Mandaqui, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>400000</v>
-      </c>
-      <c r="D94" t="n">
-        <v>72</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2</v>
-      </c>
-      <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>5555.555555555556</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 50m²</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Rua Manguari - Jardim Andaraí, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>240000</v>
-      </c>
-      <c r="D95" t="n">
-        <v>50</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Apartamento com 2 Quartos à Venda, 43m²</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Estrada Itaquera-Guaianases, 2001 - Itaquera, São Paulo - SP</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>250000</v>
-      </c>
-      <c r="D96" t="n">
-        <v>43</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>5813.953488372093</v>
+        <v>9166.666666666666</v>
       </c>
     </row>
   </sheetData>
